--- a/p1/p1-ml-data.xlsx
+++ b/p1/p1-ml-data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wneng/机器学习/统计学/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wneng/ml_projects/p1/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="15380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Incongruent</t>
   </si>
@@ -35,12 +35,16 @@
     <t>Congruent</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">     D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -57,6 +61,24 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
@@ -80,15 +102,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="13">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -363,216 +409,441 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="23.1640625" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="B2">
+        <v>15.686999999999999</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C25" si="0">A2-B2</f>
+        <v>-7.0569999999999986</v>
+      </c>
+      <c r="D2">
+        <f>(C2-$F$2)^2</f>
+        <v>0.82408571006944542</v>
+      </c>
+      <c r="E2">
+        <f>SUM(D2:D25)/23</f>
+        <v>3.5067800851449267</v>
+      </c>
+      <c r="F2">
+        <f>AVERAGE(C2:C25)</f>
+        <v>-7.9647916666666658</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>8.9870000000000001</v>
+      </c>
+      <c r="B3">
+        <v>17.393999999999998</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>-8.4069999999999983</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D25" si="1">(C3-$F$2)^2</f>
+        <v>0.19554821006944365</v>
+      </c>
+      <c r="E3">
+        <f>SQRT(E2)</f>
+        <v>1.8726398706491665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>9.4009999999999998</v>
+      </c>
+      <c r="B4">
+        <v>17.425000000000001</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>-8.0240000000000009</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>3.5056267361113186E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>9.5640000000000001</v>
+      </c>
+      <c r="B5">
+        <v>17.510000000000002</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>-7.9460000000000015</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>3.5312673611102288E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>10.638999999999999</v>
+      </c>
+      <c r="B6">
+        <v>17.96</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>-7.3210000000000015</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0.41446771006944144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>11.343999999999999</v>
+      </c>
+      <c r="B7">
+        <v>18.643999999999998</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>-7.2999999999999989</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.44194796006944476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>12.079000000000001</v>
       </c>
-      <c r="B2">
+      <c r="B8">
+        <v>18.741</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>-6.661999999999999</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>1.6972661267361115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>12.13</v>
+      </c>
+      <c r="B9">
         <v>19.277999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>16.791</v>
-      </c>
-      <c r="B3">
-        <v>18.741</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>9.5640000000000001</v>
-      </c>
-      <c r="B4">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>-7.1479999999999979</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.66714862673611319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>12.238</v>
+      </c>
+      <c r="B10">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>-8.0919999999999987</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>1.6181960069444341E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>12.369</v>
+      </c>
+      <c r="B11">
+        <v>20.428999999999998</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>-8.0599999999999987</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>9.0646267361110273E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>12.944000000000001</v>
+      </c>
+      <c r="B12">
+        <v>20.762</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>-7.8179999999999996</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>2.1547793402777644E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>14.233000000000001</v>
+      </c>
+      <c r="B13">
+        <v>20.878</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>-6.6449999999999996</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>1.7418500434027766</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>14.48</v>
+      </c>
+      <c r="B14">
+        <v>21.157</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>-6.6769999999999996</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>1.6584073767361101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14.669</v>
+      </c>
+      <c r="B15">
         <v>21.213999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>8.6300000000000008</v>
-      </c>
-      <c r="B5">
-        <v>15.686999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>14.669</v>
-      </c>
-      <c r="B6">
-        <v>22.803000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>12.238</v>
-      </c>
-      <c r="B7">
-        <v>20.878</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>-6.5449999999999982</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>2.0158083767361141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>14.692</v>
       </c>
-      <c r="B8">
-        <v>24.571999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8.9870000000000001</v>
-      </c>
-      <c r="B9">
-        <v>17.393999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9.4009999999999998</v>
-      </c>
-      <c r="B10">
-        <v>20.762</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>14.48</v>
-      </c>
-      <c r="B11">
-        <v>26.282</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>22.327999999999999</v>
-      </c>
-      <c r="B12">
-        <v>24.524000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>15.298</v>
-      </c>
-      <c r="B13">
-        <v>18.643999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="B16">
+        <v>22.058</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>-7.3659999999999997</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>0.35855146006944383</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>15.073</v>
-      </c>
-      <c r="B14">
-        <v>17.510000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>16.928999999999998</v>
-      </c>
-      <c r="B15">
-        <v>20.329999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>18.2</v>
-      </c>
-      <c r="B16">
-        <v>35.255000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>12.13</v>
       </c>
       <c r="B17">
         <v>22.158000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>-7.0850000000000009</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>0.77403337673610817</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
+        <v>15.298</v>
+      </c>
+      <c r="B18">
+        <v>22.803000000000001</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>-7.5050000000000008</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>0.21140837673610963</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>16.004000000000001</v>
+      </c>
+      <c r="B19">
+        <v>23.893999999999998</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>-7.889999999999997</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>5.5937934027780988E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>16.791</v>
+      </c>
+      <c r="B20">
+        <v>24.524000000000001</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>-7.7330000000000005</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>5.3727376736110471E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>16.928999999999998</v>
+      </c>
+      <c r="B21">
+        <v>24.571999999999999</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>-7.6430000000000007</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>0.10354987673611013</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>18.2</v>
+      </c>
+      <c r="B22">
+        <v>25.138999999999999</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>-6.9390000000000001</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>1.052248543402776</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>18.495000000000001</v>
       </c>
-      <c r="B18">
-        <v>25.138999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>10.638999999999999</v>
-      </c>
-      <c r="B19">
-        <v>20.428999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>11.343999999999999</v>
-      </c>
-      <c r="B20">
-        <v>17.425000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>12.369</v>
-      </c>
-      <c r="B21">
-        <v>34.287999999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>12.944000000000001</v>
-      </c>
-      <c r="B22">
-        <v>23.893999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>14.233000000000001</v>
-      </c>
       <c r="B23">
-        <v>17.96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+        <v>26.282</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>-7.786999999999999</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>3.1609876736111153E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>19.71</v>
       </c>
       <c r="B24">
-        <v>22.058</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+        <v>34.287999999999997</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>-14.577999999999996</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>43.734524460069402</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>16.004000000000001</v>
+        <v>22.327999999999999</v>
       </c>
       <c r="B25">
-        <v>21.157</v>
+        <v>35.255000000000003</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>-12.927000000000003</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>24.623511543402817</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A3:A25">
+    <sortCondition ref="A3:A25"/>
+  </sortState>
+  <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/p1/p1-ml-data.xlsx
+++ b/p1/p1-ml-data.xlsx
@@ -27,16 +27,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Incongruent</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Congruent</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">     D</t>
+    <t>Incongruent</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -409,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -432,409 +429,518 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>8.6300000000000008</v>
+        <v>12.079000000000001</v>
       </c>
       <c r="B2">
-        <v>15.686999999999999</v>
+        <v>19.277999999999999</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C25" si="0">A2-B2</f>
-        <v>-7.0569999999999986</v>
+        <f>A2-B2</f>
+        <v>-7.1989999999999981</v>
       </c>
       <c r="D2">
-        <f>(C2-$F$2)^2</f>
-        <v>0.82408571006944542</v>
+        <f>C2-$F$2</f>
+        <v>0.76579166666666598</v>
       </c>
       <c r="E2">
-        <f>SUM(D2:D25)/23</f>
-        <v>3.5067800851449267</v>
+        <f>D2^2</f>
+        <v>0.58643687673611011</v>
       </c>
       <c r="F2">
         <f>AVERAGE(C2:C25)</f>
-        <v>-7.9647916666666658</v>
+        <v>-7.964791666666664</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>8.9870000000000001</v>
+        <v>16.791</v>
       </c>
       <c r="B3">
-        <v>17.393999999999998</v>
+        <v>18.741</v>
       </c>
       <c r="C3">
-        <f t="shared" si="0"/>
-        <v>-8.4069999999999983</v>
+        <f t="shared" ref="C3:C25" si="0">A3-B3</f>
+        <v>-1.9499999999999993</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D25" si="1">(C3-$F$2)^2</f>
-        <v>0.19554821006944365</v>
+        <f t="shared" ref="D3:D25" si="1">C3-$F$2</f>
+        <v>6.0147916666666648</v>
       </c>
       <c r="E3">
-        <f>SQRT(E2)</f>
-        <v>1.8726398706491665</v>
+        <f t="shared" ref="E3:E25" si="2">D3^2</f>
+        <v>36.177718793402754</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>9.4009999999999998</v>
+        <v>9.5640000000000001</v>
       </c>
       <c r="B4">
-        <v>17.425000000000001</v>
+        <v>21.213999999999999</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>-8.0240000000000009</v>
+        <v>-11.649999999999999</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>3.5056267361113186E-3</v>
+        <v>-3.6852083333333345</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>13.580760460069452</v>
+      </c>
+      <c r="F4">
+        <f>SUM(E2:E25)/(23)</f>
+        <v>23.666540867753621</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>9.5640000000000001</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="B5">
-        <v>17.510000000000002</v>
+        <v>15.686999999999999</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>-7.9460000000000015</v>
+        <v>-7.0569999999999986</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>3.5312673611102288E-4</v>
+        <v>0.90779166666666544</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>0.8240857100694422</v>
+      </c>
+      <c r="F5">
+        <f>SQRT(F4)</f>
+        <v>4.8648269103590538</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>10.638999999999999</v>
+        <v>14.669</v>
       </c>
       <c r="B6">
-        <v>17.96</v>
+        <v>22.803000000000001</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>-7.3210000000000015</v>
+        <v>-8.1340000000000003</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>0.41446771006944144</v>
+        <v>-0.16920833333333629</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>2.8631460069445447E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>11.343999999999999</v>
+        <v>12.238</v>
       </c>
       <c r="B7">
-        <v>18.643999999999998</v>
+        <v>20.878</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>-7.2999999999999989</v>
+        <v>-8.64</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>0.44194796006944476</v>
+        <v>-0.67520833333333652</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>0.4559062934027821</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>12.079000000000001</v>
+        <v>14.692</v>
       </c>
       <c r="B8">
-        <v>18.741</v>
+        <v>24.571999999999999</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>-6.661999999999999</v>
+        <v>-9.879999999999999</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>1.6972661267361115</v>
+        <v>-1.915208333333335</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>3.6680229600694507</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>12.13</v>
+        <v>8.9870000000000001</v>
       </c>
       <c r="B9">
-        <v>19.277999999999999</v>
+        <v>17.393999999999998</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>-7.1479999999999979</v>
+        <v>-8.4069999999999983</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>0.66714862673611319</v>
+        <v>-0.4422083333333342</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>0.1955482100694452</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>12.238</v>
+        <v>9.4009999999999998</v>
       </c>
       <c r="B10">
-        <v>20.329999999999998</v>
+        <v>20.762</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>-8.0919999999999987</v>
+        <v>-11.361000000000001</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>1.6181960069444341E-2</v>
+        <v>-3.3962083333333366</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>11.5342310434028</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>12.369</v>
+        <v>14.48</v>
       </c>
       <c r="B11">
-        <v>20.428999999999998</v>
+        <v>26.282</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>-8.0599999999999987</v>
+        <v>-11.802</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>9.0646267361110273E-3</v>
+        <v>-3.8372083333333356</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>14.724167793402795</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>12.944000000000001</v>
+        <v>22.327999999999999</v>
       </c>
       <c r="B12">
-        <v>20.762</v>
+        <v>24.524000000000001</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>-7.8179999999999996</v>
+        <v>-2.1960000000000015</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>2.1547793402777644E-2</v>
+        <v>5.7687916666666625</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>33.278957293402733</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>14.233000000000001</v>
+        <v>15.298</v>
       </c>
       <c r="B13">
-        <v>20.878</v>
+        <v>18.643999999999998</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>-6.6449999999999996</v>
+        <v>-3.3459999999999983</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>1.7418500434027766</v>
+        <v>4.6187916666666657</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>21.333236460069436</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>14.48</v>
+        <v>15.073</v>
       </c>
       <c r="B14">
-        <v>21.157</v>
+        <v>17.510000000000002</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>-6.6769999999999996</v>
+        <v>-2.4370000000000012</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>1.6584073767361101</v>
+        <v>5.5277916666666629</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>30.556480710069401</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>14.669</v>
+        <v>16.928999999999998</v>
       </c>
       <c r="B15">
-        <v>21.213999999999999</v>
+        <v>20.329999999999998</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>-6.5449999999999982</v>
+        <v>-3.4009999999999998</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>2.0158083767361141</v>
+        <v>4.5637916666666642</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>20.828194376736089</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>14.692</v>
+        <v>18.2</v>
       </c>
       <c r="B16">
-        <v>22.058</v>
+        <v>35.255000000000003</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>-7.3659999999999997</v>
+        <v>-17.055000000000003</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>0.35855146006944383</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+        <v>-9.0902083333333401</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>82.631887543402897</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>15.073</v>
+        <v>12.13</v>
       </c>
       <c r="B17">
         <v>22.158000000000001</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>-7.0850000000000009</v>
+        <v>-10.028</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>0.77403337673610817</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+        <v>-2.0632083333333364</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>4.2568286267361239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>15.298</v>
+        <v>18.495000000000001</v>
       </c>
       <c r="B18">
-        <v>22.803000000000001</v>
+        <v>25.138999999999999</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>-7.5050000000000008</v>
+        <v>-6.6439999999999984</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>0.21140837673610963</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+        <v>1.3207916666666657</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>1.7444906267361087</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>16.004000000000001</v>
+        <v>10.638999999999999</v>
       </c>
       <c r="B19">
+        <v>20.428999999999998</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>-9.7899999999999991</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>-1.8252083333333351</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>3.331385460069451</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>11.343999999999999</v>
+      </c>
+      <c r="B20">
+        <v>17.425000000000001</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>-6.0810000000000013</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>1.8837916666666628</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>3.5486710434027628</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>12.369</v>
+      </c>
+      <c r="B21">
+        <v>34.287999999999997</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>-21.918999999999997</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>-13.954208333333334</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>194.71993021006946</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>12.944000000000001</v>
+      </c>
+      <c r="B22">
         <v>23.893999999999998</v>
       </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>-7.889999999999997</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="1"/>
-        <v>5.5937934027780988E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>16.791</v>
-      </c>
-      <c r="B20">
-        <v>24.524000000000001</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>-7.7330000000000005</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="1"/>
-        <v>5.3727376736110471E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>16.928999999999998</v>
-      </c>
-      <c r="B21">
-        <v>24.571999999999999</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>-7.6430000000000007</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="1"/>
-        <v>0.10354987673611013</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>18.2</v>
-      </c>
-      <c r="B22">
-        <v>25.138999999999999</v>
-      </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>-6.9390000000000001</v>
+        <v>-10.949999999999998</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>1.052248543402776</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+        <v>-2.9852083333333335</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>8.9114687934027792</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>18.495000000000001</v>
+        <v>14.233000000000001</v>
       </c>
       <c r="B23">
-        <v>26.282</v>
+        <v>17.96</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>-7.786999999999999</v>
+        <v>-3.7270000000000003</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>3.1609876736111153E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+        <v>4.2377916666666637</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>17.958878210069418</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>19.71</v>
       </c>
       <c r="B24">
-        <v>34.287999999999997</v>
+        <v>22.058</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>-14.577999999999996</v>
+        <v>-2.347999999999999</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>43.734524460069402</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+        <v>5.6167916666666651</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>31.548348626736093</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>22.327999999999999</v>
+        <v>16.004000000000001</v>
       </c>
       <c r="B25">
-        <v>35.255000000000003</v>
+        <v>21.157</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>-12.927000000000003</v>
+        <v>-5.1529999999999987</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>24.623511543402817</v>
+        <v>2.8117916666666654</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>7.9061723767361034</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f>AVERAGE(A2:A25)</f>
+        <v>14.051125000000001</v>
+      </c>
+      <c r="B27">
+        <f>AVERAGE(B2:B25)</f>
+        <v>22.015916666666669</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f>A27-B27</f>
+        <v>-7.9647916666666685</v>
       </c>
     </row>
   </sheetData>

--- a/p1/p1-ml-data.xlsx
+++ b/p1/p1-ml-data.xlsx
@@ -409,7 +409,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -546,6 +546,10 @@
         <f t="shared" si="2"/>
         <v>2.8631460069445447E-2</v>
       </c>
+      <c r="F6">
+        <f>STDEV(C2:C25)</f>
+        <v>4.8648269103590565</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
